--- a/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
+++ b/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,38 +514,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -557,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,22 +569,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
+++ b/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -567,6 +568,271 @@
       </c>
       <c r="B4" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.643460967477793</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.41562610652367</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.500343117691102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.4010038090098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.097099822058372</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.00382019537671</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.406418929569638</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.95533616741278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.867374760285339</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.43225030923465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.370922429248275</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.25850799339404</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.974377988512207</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.83238837229509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.383938207130019</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.07343883022997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.139156380305161</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.57929138312969</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7633557837250129</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.29837549824094</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5625282373666475</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.96934831608963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05141026211668231</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.73385839984893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.838726747823915</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.43744560629182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.107591885285964</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.28060932035542</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.032140156645108</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.42167231629737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.871505785736596</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.33036675494527</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
+++ b/po_analysis_by_asin/B07B79CF9R_po_data.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,16 +600,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -618,12 +608,6 @@
       <c r="B2" t="n">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.643460967477793</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.41562610652367</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -632,12 +616,6 @@
       <c r="B3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.500343117691102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.4010038090098</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -646,12 +624,6 @@
       <c r="B4" t="n">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.097099822058372</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.00382019537671</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -660,12 +632,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.406418929569638</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.95533616741278</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -674,12 +640,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.867374760285339</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.43225030923465</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -688,12 +648,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.370922429248275</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17.25850799339404</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -702,12 +656,6 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.974377988512207</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.83238837229509</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -716,12 +664,6 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.383938207130019</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15.07343883022997</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -730,12 +672,6 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.139156380305161</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.57929138312969</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -744,12 +680,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.7633557837250129</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.29837549824094</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -758,12 +688,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.5625282373666475</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13.96934831608963</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -772,12 +696,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.05141026211668231</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.73385839984893</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -786,12 +704,6 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.838726747823915</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.43744560629182</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -800,12 +712,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.107591885285964</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.28060932035542</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -814,12 +720,6 @@
       <c r="B16" t="n">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.032140156645108</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.42167231629737</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -827,12 +727,6 @@
       </c>
       <c r="B17" t="n">
         <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-1.871505785736596</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.33036675494527</v>
       </c>
     </row>
   </sheetData>
